--- a/codings.xlsx
+++ b/codings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vrien106\Dropbox\Work\ooa_matching_stat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\UBD\FCA\ASC\05. CSA\70. Python\archief\rapportage\rapportage_matchingsformulier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E8397C-0F81-4930-9D1C-4E62C04D5F68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F62D1D2-8D14-4B1B-82D0-950CCCA5859E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10035" xr2:uid="{104895B0-7EB8-403F-A943-D4972289470A}"/>
+    <workbookView xWindow="5632" yWindow="1073" windowWidth="15901" windowHeight="13620" xr2:uid="{104895B0-7EB8-403F-A943-D4972289470A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="625">
   <si>
     <t>TYPE</t>
   </si>
@@ -1842,6 +1842,69 @@
   </si>
   <si>
     <t>Write and present at an academic level</t>
+  </si>
+  <si>
+    <t>O_STELLING5</t>
+  </si>
+  <si>
+    <t>Werking brein</t>
+  </si>
+  <si>
+    <t>How the brain works</t>
+  </si>
+  <si>
+    <t>O_STELLING29</t>
+  </si>
+  <si>
+    <t>Discussie</t>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+  <si>
+    <t>O_STELLING57</t>
+  </si>
+  <si>
+    <t>Zelfstandig informatie verzamelen</t>
+  </si>
+  <si>
+    <t>Collecting data independently</t>
+  </si>
+  <si>
+    <t>O_STELLING88</t>
+  </si>
+  <si>
+    <t>Relatie taalgebruik-intelligentie</t>
+  </si>
+  <si>
+    <t>Relationship language use and intelligence</t>
+  </si>
+  <si>
+    <t>O_STELLING94</t>
+  </si>
+  <si>
+    <t>Intelligent gedrag systeem</t>
+  </si>
+  <si>
+    <t>Intelligent behavior of system</t>
+  </si>
+  <si>
+    <t>O_STELLING104</t>
+  </si>
+  <si>
+    <t>Zelf intelligent systeem programmeren</t>
+  </si>
+  <si>
+    <t>Program intelligent system myself</t>
+  </si>
+  <si>
+    <t>Combinatie specialisaties</t>
+  </si>
+  <si>
+    <t>Combination of specializations</t>
+  </si>
+  <si>
+    <t>O_STELLIN89</t>
   </si>
 </sst>
 </file>
@@ -2203,22 +2266,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF134CB-61AD-4252-A50A-6455B264877A}">
-  <dimension ref="A1:O255"/>
+  <dimension ref="A1:O262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="D248" sqref="D248"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2235,7 +2298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -2252,7 +2315,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2269,7 +2332,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2286,7 +2349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -2303,7 +2366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2320,7 +2383,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -2337,7 +2400,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -2354,7 +2417,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -2371,7 +2434,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2388,7 +2451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -2405,7 +2468,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -2422,7 +2485,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2439,7 +2502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2456,7 +2519,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2473,7 +2536,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2490,7 +2553,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -2507,7 +2570,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -2524,7 +2587,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -2541,7 +2604,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -2558,7 +2621,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -2575,7 +2638,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -2592,7 +2655,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2609,7 +2672,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2626,7 +2689,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2643,7 +2706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2660,7 +2723,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -2677,7 +2740,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -2694,7 +2757,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -2708,7 +2771,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2722,7 +2785,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -2736,7 +2799,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -2753,7 +2816,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -2770,7 +2833,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2787,7 +2850,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -2804,7 +2867,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -2821,7 +2884,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2838,7 +2901,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -2855,7 +2918,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -2872,7 +2935,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -2889,7 +2952,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -2906,7 +2969,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2923,7 +2986,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -2940,7 +3003,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2957,7 +3020,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2974,7 +3037,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2991,7 +3054,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -3008,7 +3071,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -3026,7 +3089,7 @@
       </c>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3044,7 +3107,7 @@
       </c>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -3062,7 +3125,7 @@
       </c>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -3080,7 +3143,7 @@
       </c>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -3098,7 +3161,7 @@
       </c>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -3116,7 +3179,7 @@
       </c>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -3134,7 +3197,7 @@
       </c>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -3152,7 +3215,7 @@
       </c>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -3170,7 +3233,7 @@
       </c>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -3188,7 +3251,7 @@
       </c>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -3206,7 +3269,7 @@
       </c>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -3224,7 +3287,7 @@
       </c>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -3239,7 +3302,7 @@
       </c>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -3254,7 +3317,7 @@
       </c>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>48</v>
       </c>
@@ -3269,7 +3332,7 @@
       </c>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -3281,7 +3344,7 @@
       </c>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -3293,7 +3356,7 @@
       </c>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -3308,7 +3371,7 @@
       </c>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>48</v>
       </c>
@@ -3320,2313 +3383,2413 @@
       </c>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>48</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D67" t="s">
+        <v>605</v>
+      </c>
+      <c r="E67" t="s">
+        <v>606</v>
+      </c>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
         <v>394</v>
       </c>
-      <c r="O67" s="1"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>395</v>
       </c>
-      <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>396</v>
       </c>
-      <c r="O69" s="1"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="O70" s="1"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>182</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>554</v>
       </c>
-      <c r="O70" s="1"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="O71" s="1"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>397</v>
       </c>
-      <c r="O71" s="1"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>48</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="O72" s="1"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>187</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E73" t="s">
         <v>555</v>
       </c>
-      <c r="O72" s="1"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>48</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="O73" s="1"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D74" t="s">
         <v>188</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E74" t="s">
         <v>556</v>
       </c>
-      <c r="O73" s="1"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>48</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="O74" s="1"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>189</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
         <v>557</v>
       </c>
-      <c r="O74" s="1"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>48</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="O75" s="1"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>190</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E76" t="s">
         <v>558</v>
       </c>
-      <c r="O75" s="1"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="O76" s="1"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>398</v>
       </c>
-      <c r="O76" s="1"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>48</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="O77" s="1"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>399</v>
       </c>
-      <c r="O77" s="1"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>48</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="O78" s="1"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>400</v>
       </c>
-      <c r="O78" s="1"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>48</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="O79" s="1"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D80" t="s">
         <v>198</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>198</v>
       </c>
-      <c r="O79" s="1"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>48</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="O80" s="1"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>199</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E81" t="s">
         <v>559</v>
       </c>
-      <c r="O80" s="1"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>48</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="O81" s="1"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>200</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E82" t="s">
         <v>560</v>
       </c>
-      <c r="O81" s="1"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>48</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="O82" s="1"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>201</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>561</v>
       </c>
-      <c r="O82" s="1"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>48</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="O83" s="1"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>202</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E84" t="s">
         <v>562</v>
       </c>
-      <c r="O83" s="1"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>48</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="O84" s="1"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>203</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>563</v>
       </c>
-      <c r="O84" s="1"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>48</v>
-      </c>
-      <c r="C85" s="1" t="s">
+      <c r="O85" s="1"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>204</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E86" t="s">
         <v>578</v>
       </c>
-      <c r="O85" s="1"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>48</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="O86" s="1"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D87" t="s">
         <v>401</v>
       </c>
-      <c r="O86" s="1"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>48</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="O87" s="1"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>48</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D88" t="s">
         <v>402</v>
       </c>
-      <c r="O87" s="1"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>48</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="O88" s="1"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D89" t="s">
         <v>129</v>
       </c>
-      <c r="O88" s="1"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>48</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="O89" s="1"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D90" t="s">
         <v>403</v>
       </c>
-      <c r="O89" s="1"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>48</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="O90" s="1"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D91" t="s">
         <v>404</v>
       </c>
-      <c r="O90" s="1"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>48</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="O91" s="1"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D92" t="s">
+        <v>608</v>
+      </c>
+      <c r="E92" t="s">
+        <v>609</v>
+      </c>
+      <c r="O92" s="1"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D93" t="s">
         <v>405</v>
       </c>
-      <c r="O91" s="1"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="O93" s="1"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D94" t="s">
         <v>406</v>
       </c>
-      <c r="O92" s="1"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>48</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="O94" s="1"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D95" t="s">
         <v>407</v>
       </c>
-      <c r="O93" s="1"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>48</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="O95" s="1"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D96" t="s">
         <v>408</v>
       </c>
-      <c r="O94" s="1"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>48</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="O96" s="1"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D97" t="s">
         <v>409</v>
       </c>
-      <c r="O95" s="1"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>48</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="O97" s="1"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D98" t="s">
         <v>410</v>
       </c>
-      <c r="O96" s="1"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>48</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="O98" s="1"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>48</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D99" t="s">
         <v>411</v>
       </c>
-      <c r="O97" s="1"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>48</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="O99" s="1"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D100" t="s">
         <v>412</v>
       </c>
-      <c r="O98" s="1"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>48</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="O100" s="1"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D101" t="s">
         <v>206</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E101" t="s">
         <v>564</v>
       </c>
-      <c r="O99" s="1"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>48</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="O101" s="1"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D102" t="s">
         <v>413</v>
       </c>
-      <c r="O100" s="1"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>48</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="O102" s="1"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D103" t="s">
         <v>414</v>
       </c>
-      <c r="O101" s="1"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>48</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="O103" s="1"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D104" t="s">
         <v>415</v>
       </c>
-      <c r="O102" s="1"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>48</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="O104" s="1"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>48</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D105" t="s">
         <v>416</v>
       </c>
-      <c r="O103" s="1"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>48</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="O105" s="1"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D106" t="s">
         <v>417</v>
       </c>
-      <c r="O104" s="1"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>48</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="O106" s="1"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>48</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D107" t="s">
         <v>418</v>
       </c>
-      <c r="O105" s="1"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>48</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="O107" s="1"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D108" t="s">
         <v>419</v>
       </c>
-      <c r="O106" s="1"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>48</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="O108" s="1"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>48</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D109" t="s">
         <v>420</v>
       </c>
-      <c r="O107" s="1"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>48</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="O109" s="1"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>48</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D110" t="s">
         <v>421</v>
       </c>
-      <c r="O108" s="1"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>48</v>
-      </c>
-      <c r="C109" s="1" t="s">
+      <c r="O110" s="1"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>48</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D111" t="s">
         <v>422</v>
       </c>
-      <c r="O109" s="1"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>48</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="O111" s="1"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>48</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D112" t="s">
         <v>423</v>
       </c>
-      <c r="O110" s="1"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>48</v>
-      </c>
-      <c r="C111" s="1" t="s">
+      <c r="O112" s="1"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>48</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D113" t="s">
         <v>424</v>
       </c>
-      <c r="O111" s="1"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>48</v>
-      </c>
-      <c r="C112" s="1" t="s">
+      <c r="O113" s="1"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>48</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D114" t="s">
         <v>210</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E114" t="s">
         <v>565</v>
       </c>
-      <c r="O112" s="1"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>48</v>
-      </c>
-      <c r="C113" s="1" t="s">
+      <c r="O114" s="1"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>48</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D115" t="s">
         <v>211</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E115" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>48</v>
-      </c>
-      <c r="C114" s="1" t="s">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D116" t="s">
         <v>212</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E116" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>48</v>
-      </c>
-      <c r="C115" s="1" t="s">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>48</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D117" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>48</v>
-      </c>
-      <c r="C116" s="1" t="s">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>48</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D118" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>48</v>
-      </c>
-      <c r="C117" s="1" t="s">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>48</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D119" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>48</v>
-      </c>
-      <c r="C118" s="1" t="s">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>48</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D120" t="s">
+        <v>611</v>
+      </c>
+      <c r="E120" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>48</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D121" t="s">
         <v>215</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E121" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>48</v>
-      </c>
-      <c r="C119" s="1" t="s">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>48</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D122" t="s">
         <v>216</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E122" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>48</v>
-      </c>
-      <c r="C120" s="1" t="s">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>48</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D123" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>48</v>
-      </c>
-      <c r="C121" s="1" t="s">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>48</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D124" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>48</v>
-      </c>
-      <c r="C122" s="1" t="s">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>48</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D125" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>48</v>
-      </c>
-      <c r="C123" s="1" t="s">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>48</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D126" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>48</v>
-      </c>
-      <c r="C124" s="1" t="s">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>48</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D127" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>48</v>
-      </c>
-      <c r="C125" s="1" t="s">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>48</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D128" t="s">
         <v>218</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E128" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>48</v>
-      </c>
-      <c r="C126" s="1" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>48</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D129" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>48</v>
-      </c>
-      <c r="C127" s="1" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>48</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D130" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>48</v>
-      </c>
-      <c r="C128" s="1" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>48</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D131" t="s">
         <v>221</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E131" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>48</v>
-      </c>
-      <c r="C129" s="1" t="s">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D132" t="s">
         <v>222</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E132" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>48</v>
-      </c>
-      <c r="C130" s="1" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D133" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>48</v>
-      </c>
-      <c r="C131" s="1" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>48</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D134" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>48</v>
-      </c>
-      <c r="C132" s="1" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>48</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D135" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C133" s="1" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>48</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D136" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>48</v>
-      </c>
-      <c r="C134" s="1" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>48</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D137" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>48</v>
-      </c>
-      <c r="C135" s="1" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>48</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D138" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>48</v>
-      </c>
-      <c r="C136" s="1" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>48</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D139" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>48</v>
-      </c>
-      <c r="C137" s="1" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>48</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D140" t="s">
         <v>224</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E140" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>48</v>
-      </c>
-      <c r="C138" s="1" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>48</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D141" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>48</v>
-      </c>
-      <c r="C139" s="1" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>48</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D142" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>48</v>
-      </c>
-      <c r="C140" s="1" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>48</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D143" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>48</v>
-      </c>
-      <c r="C141" s="1" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>48</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D144" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>48</v>
-      </c>
-      <c r="C142" s="1" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>48</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D145" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>48</v>
-      </c>
-      <c r="C143" s="1" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>48</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D146" t="s">
         <v>443</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E146" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>48</v>
-      </c>
-      <c r="C144" s="1" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>48</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D147" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>48</v>
-      </c>
-      <c r="C145" s="1" t="s">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>48</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D148" t="s">
         <v>445</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E148" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>48</v>
-      </c>
-      <c r="C146" s="1" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>48</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D149" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>48</v>
-      </c>
-      <c r="C147" s="1" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>48</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D150" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>48</v>
-      </c>
-      <c r="C148" s="1" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>48</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D151" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>48</v>
-      </c>
-      <c r="C149" s="1" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>48</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D152" t="s">
         <v>447</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E152" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>48</v>
-      </c>
-      <c r="C150" s="1" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>48</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D153" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>48</v>
-      </c>
-      <c r="C151" s="1" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>48</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D154" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>48</v>
-      </c>
-      <c r="C152" s="1" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>48</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D155" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>48</v>
-      </c>
-      <c r="C153" s="1" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>48</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D156" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>48</v>
-      </c>
-      <c r="C154" s="1" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>48</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D157" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>48</v>
-      </c>
-      <c r="C155" s="1" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>48</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D158" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>48</v>
-      </c>
-      <c r="C156" s="1" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>48</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D159" t="s">
         <v>454</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E159" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>48</v>
-      </c>
-      <c r="C157" s="1" t="s">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>48</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D160" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>48</v>
-      </c>
-      <c r="C158" s="1" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>48</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D161" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>48</v>
-      </c>
-      <c r="C159" s="1" t="s">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>48</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D162" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>48</v>
-      </c>
-      <c r="C160" s="1" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>48</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D163" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>48</v>
-      </c>
-      <c r="C161" s="1" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>48</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D164" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>48</v>
-      </c>
-      <c r="C162" s="1" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>48</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D165" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>48</v>
-      </c>
-      <c r="C163" s="1" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>48</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D166" t="s">
         <v>460</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E166" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>48</v>
-      </c>
-      <c r="C164" s="1" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>48</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D167" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>48</v>
-      </c>
-      <c r="C165" s="1" t="s">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>48</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D168" t="s">
+        <v>614</v>
+      </c>
+      <c r="E168" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>48</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D169" t="s">
+        <v>622</v>
+      </c>
+      <c r="E169" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>48</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D170" t="s">
         <v>462</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E170" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>48</v>
-      </c>
-      <c r="C166" s="1" t="s">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>48</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D171" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>48</v>
-      </c>
-      <c r="C167" s="1" t="s">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>48</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D172" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>48</v>
-      </c>
-      <c r="C168" s="1" t="s">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>48</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D173" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>48</v>
-      </c>
-      <c r="C169" s="1" t="s">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>48</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D174" t="s">
+        <v>617</v>
+      </c>
+      <c r="E174" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>48</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D175" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>48</v>
-      </c>
-      <c r="C170" s="1" t="s">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>48</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D176" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>48</v>
-      </c>
-      <c r="C171" s="1" t="s">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>48</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D177" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>48</v>
-      </c>
-      <c r="C172" s="1" t="s">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>48</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D178" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>48</v>
-      </c>
-      <c r="C173" s="1" t="s">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>48</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D179" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>48</v>
-      </c>
-      <c r="C174" s="1" t="s">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>48</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D180" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>48</v>
-      </c>
-      <c r="C175" s="1" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>48</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D181" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>48</v>
-      </c>
-      <c r="C176" s="1" t="s">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>48</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D182" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>48</v>
-      </c>
-      <c r="C177" s="1" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>48</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D183" t="s">
+        <v>620</v>
+      </c>
+      <c r="E183" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>48</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D184" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>48</v>
-      </c>
-      <c r="C178" s="1" t="s">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>48</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D185" t="s">
         <v>475</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E185" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>48</v>
-      </c>
-      <c r="C179" s="1" t="s">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>48</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D186" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>48</v>
-      </c>
-      <c r="C180" s="1" t="s">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>48</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D187" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>48</v>
-      </c>
-      <c r="C181" s="1" t="s">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>48</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D188" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>48</v>
-      </c>
-      <c r="C182" s="1" t="s">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>48</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D189" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>48</v>
-      </c>
-      <c r="C183" s="1" t="s">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>48</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D190" t="s">
         <v>479</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E190" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>48</v>
-      </c>
-      <c r="C184" s="1" t="s">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>48</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D191" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>48</v>
-      </c>
-      <c r="C185" s="1" t="s">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>48</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D192" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>48</v>
-      </c>
-      <c r="C186" s="1" t="s">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
+        <v>48</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D193" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>48</v>
-      </c>
-      <c r="C187" s="1" t="s">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
+        <v>48</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D194" t="s">
         <v>483</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E194" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>48</v>
-      </c>
-      <c r="C188" s="1" t="s">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
+        <v>48</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D195" t="s">
         <v>484</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E195" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>48</v>
-      </c>
-      <c r="C189" s="1" t="s">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>48</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D196" t="s">
         <v>485</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E196" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>48</v>
-      </c>
-      <c r="C190" s="1" t="s">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>48</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D197" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>48</v>
-      </c>
-      <c r="C191" s="1" t="s">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>48</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D198" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>48</v>
-      </c>
-      <c r="C192" s="1" t="s">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>48</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D199" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>48</v>
-      </c>
-      <c r="C193" s="1" t="s">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>48</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D200" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>48</v>
-      </c>
-      <c r="C194" s="1" t="s">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>48</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D201" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>48</v>
-      </c>
-      <c r="C195" s="1" t="s">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>48</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D202" t="s">
         <v>487</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E202" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>48</v>
-      </c>
-      <c r="C196" s="1" t="s">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>48</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D203" t="s">
         <v>490</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E203" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>48</v>
-      </c>
-      <c r="C197" s="1" t="s">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>48</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D204" t="s">
         <v>190</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E204" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>48</v>
-      </c>
-      <c r="C198" s="1" t="s">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>48</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D205" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>48</v>
-      </c>
-      <c r="C199" s="1" t="s">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>48</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D206" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>48</v>
-      </c>
-      <c r="C200" s="1" t="s">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>48</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D207" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>48</v>
-      </c>
-      <c r="C201" s="1" t="s">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>48</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D208" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>48</v>
-      </c>
-      <c r="C202" s="1" t="s">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>48</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D209" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>48</v>
-      </c>
-      <c r="C203" s="1" t="s">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>48</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D210" t="s">
         <v>496</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E210" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>48</v>
-      </c>
-      <c r="C204" s="1" t="s">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
+        <v>48</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D211" t="s">
         <v>497</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E211" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>48</v>
-      </c>
-      <c r="C205" s="1" t="s">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>48</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D212" t="s">
         <v>429</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E212" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>48</v>
-      </c>
-      <c r="C206" s="1" t="s">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
+        <v>48</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D213" t="s">
         <v>498</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E213" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>48</v>
-      </c>
-      <c r="C207" s="1" t="s">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>48</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D214" t="s">
         <v>499</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E214" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>48</v>
-      </c>
-      <c r="C208" s="1" t="s">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
+        <v>48</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D215" t="s">
         <v>500</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E215" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>48</v>
-      </c>
-      <c r="C209" s="1" t="s">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>48</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D216" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>48</v>
-      </c>
-      <c r="C210" s="1" t="s">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
+        <v>48</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D217" t="s">
         <v>501</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E217" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>48</v>
-      </c>
-      <c r="C211" s="1" t="s">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>48</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D218" t="s">
         <v>502</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E218" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>48</v>
-      </c>
-      <c r="C212" s="1" t="s">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
+        <v>48</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D219" t="s">
         <v>503</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E219" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>48</v>
-      </c>
-      <c r="C213" s="1" t="s">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
+        <v>48</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D220" t="s">
         <v>504</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E220" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>48</v>
-      </c>
-      <c r="C214" s="1" t="s">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A221" t="s">
+        <v>48</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D221" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>48</v>
-      </c>
-      <c r="C215" s="1" t="s">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
+        <v>48</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D222" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>48</v>
-      </c>
-      <c r="C216" s="1" t="s">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>48</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D223" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>48</v>
-      </c>
-      <c r="C217" s="1" t="s">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
+        <v>48</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D224" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>48</v>
-      </c>
-      <c r="C218" s="1" t="s">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
+        <v>48</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D225" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>48</v>
-      </c>
-      <c r="C219" s="1" t="s">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>48</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D226" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>48</v>
-      </c>
-      <c r="C220" s="1" t="s">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>48</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D227" t="s">
         <v>509</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E227" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>48</v>
-      </c>
-      <c r="C221" s="1" t="s">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>48</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D228" t="s">
         <v>510</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E228" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>48</v>
-      </c>
-      <c r="C222" s="1" t="s">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
+        <v>48</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D229" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>48</v>
-      </c>
-      <c r="C223" s="1" t="s">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>48</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D230" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>48</v>
-      </c>
-      <c r="C224" s="1" t="s">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
+        <v>48</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D231" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>48</v>
-      </c>
-      <c r="C225" s="1" t="s">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
+        <v>48</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D232" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>48</v>
-      </c>
-      <c r="C226" s="1" t="s">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A233" t="s">
+        <v>48</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D233" t="s">
         <v>515</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E233" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>48</v>
-      </c>
-      <c r="C227" s="1" t="s">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>48</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D234" t="s">
         <v>489</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E234" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>48</v>
-      </c>
-      <c r="C228" s="1" t="s">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
+        <v>48</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D235" t="s">
         <v>516</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E235" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>48</v>
-      </c>
-      <c r="C229" s="1" t="s">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
+        <v>48</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D236" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>48</v>
-      </c>
-      <c r="C230" s="1" t="s">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A237" t="s">
+        <v>48</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D237" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>48</v>
-      </c>
-      <c r="C231" s="1" t="s">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>48</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D238" t="s">
         <v>202</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E238" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>48</v>
-      </c>
-      <c r="C232" s="1" t="s">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
+        <v>48</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D239" t="s">
         <v>519</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E239" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>48</v>
-      </c>
-      <c r="C233" s="1" t="s">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
+        <v>48</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D240" t="s">
         <v>520</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E240" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>48</v>
-      </c>
-      <c r="C234" s="1" t="s">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
+        <v>48</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D241" t="s">
         <v>600</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E241" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>48</v>
-      </c>
-      <c r="C235" s="1" t="s">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>48</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D242" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>48</v>
-      </c>
-      <c r="C236" s="1" t="s">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
+        <v>48</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D243" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>48</v>
-      </c>
-      <c r="C237" s="1" t="s">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>48</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D244" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>48</v>
-      </c>
-      <c r="C238" s="1" t="s">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>48</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D245" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>48</v>
-      </c>
-      <c r="C239" s="1" t="s">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>48</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D246" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>48</v>
-      </c>
-      <c r="C240" s="1" t="s">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A247" t="s">
+        <v>48</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D247" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>48</v>
-      </c>
-      <c r="C241" s="1" t="s">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A248" t="s">
+        <v>48</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D248" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>48</v>
-      </c>
-      <c r="C242" s="1" t="s">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A249" t="s">
+        <v>48</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D249" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>48</v>
-      </c>
-      <c r="C243" s="1" t="s">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>48</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D250" t="s">
         <v>528</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E250" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>48</v>
-      </c>
-      <c r="C244" s="1" t="s">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A251" t="s">
+        <v>48</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D251" t="s">
         <v>529</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E251" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>48</v>
-      </c>
-      <c r="C245" s="1" t="s">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A252" t="s">
+        <v>48</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D252" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>48</v>
-      </c>
-      <c r="C246" s="1" t="s">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
+        <v>48</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D253" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>48</v>
-      </c>
-      <c r="C247" s="1" t="s">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>48</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D254" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>48</v>
-      </c>
-      <c r="C248" s="1" t="s">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
+        <v>48</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D255" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>48</v>
-      </c>
-      <c r="C249" s="1" t="s">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A256" t="s">
+        <v>48</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D256" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>48</v>
-      </c>
-      <c r="C250" s="1" t="s">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A257" t="s">
+        <v>48</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D257" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>48</v>
-      </c>
-      <c r="C251" s="1" t="s">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
+        <v>48</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D258" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>48</v>
-      </c>
-      <c r="C252" s="1" t="s">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A259" t="s">
+        <v>48</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D259" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>48</v>
-      </c>
-      <c r="C253" s="1" t="s">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
+        <v>48</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D260" t="s">
         <v>546</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E260" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>48</v>
-      </c>
-      <c r="C254" s="1" t="s">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A261" t="s">
+        <v>48</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D261" t="s">
         <v>540</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E261" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>48</v>
-      </c>
-      <c r="C255" s="1" t="s">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>48</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D262" t="s">
         <v>543</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E262" t="s">
         <v>544</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="O48:O112">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O48:O114">
     <sortCondition ref="O48"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
